--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H2">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N2">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q2">
-        <v>11.64542312686926</v>
+        <v>49.06127479499267</v>
       </c>
       <c r="R2">
-        <v>11.64542312686926</v>
+        <v>441.5514731549341</v>
       </c>
       <c r="S2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="T2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H3">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N3">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q3">
-        <v>128.3253347423801</v>
+        <v>503.39483278182</v>
       </c>
       <c r="R3">
-        <v>128.3253347423801</v>
+        <v>4530.55349503638</v>
       </c>
       <c r="S3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="T3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H4">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N4">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q4">
-        <v>42.31564156064085</v>
+        <v>171.950025598809</v>
       </c>
       <c r="R4">
-        <v>42.31564156064085</v>
+        <v>1547.550230389281</v>
       </c>
       <c r="S4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="T4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
     </row>
   </sheetData>
